--- a/src/main/resources/xlsx/pcs/prList-4.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-4.xlsx
@@ -98,11 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全校共有党员mc名，其中：在职教职工正式党员tc名，学生党员sc名，离退休党员rc名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>专业技术人员和干部代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校共有党员mc名，其中：在职教职工党员tc名，学生党员sc名，离退休党员rc名。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,7 +676,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -745,7 +745,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>

--- a/src/main/resources/xlsx/pcs/prList-4.xlsx
+++ b/src/main/resources/xlsx/pcs/prList-4.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AFEB68-FC69-4035-99F2-77C89B03EA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4815" yWindow="3750" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="代表情况统计表" sheetId="1" r:id="rId1"/>
@@ -81,8 +82,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>专业技术人员和干部代表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全校共有党员mc名，其中：在职教职工党员tc名，学生党员sc名，离退休党员rc名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表情况统计表
+      <t xml:space="preserve">title
 </t>
     </r>
     <r>
@@ -97,19 +106,11 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>专业技术人员和干部代表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全校共有党员mc名，其中：在职教职工党员tc名，学生党员sc名，离退休党员rc名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,11 +673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,7 +692,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -705,7 +706,7 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -745,7 +746,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>3</v>
